--- a/Convolved 1 Parameters.xlsx
+++ b/Convolved 1 Parameters.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,19 +414,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31.5</v>
+        <v>25</v>
       </c>
       <c r="C2">
-        <v>6.907999999999999</v>
+        <v>7.7725</v>
       </c>
       <c r="D2">
-        <v>5.242875</v>
+        <v>27.17875</v>
       </c>
       <c r="E2">
-        <v>-11.8321908413152</v>
+        <v>-34.46857382115153</v>
       </c>
       <c r="F2">
-        <v>-6.745743633716415</v>
+        <v>-32.84416424623069</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -434,19 +434,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>31.5</v>
       </c>
       <c r="C3">
-        <v>6.193624999999999</v>
+        <v>6.871</v>
       </c>
       <c r="D3">
-        <v>5.080249999999999</v>
+        <v>5.226625</v>
       </c>
       <c r="E3">
-        <v>-9.720259133184223</v>
+        <v>-11.79647390330246</v>
       </c>
       <c r="F3">
-        <v>-4.761573145191161</v>
+        <v>-6.676086324092996</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -454,19 +454,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="C4">
-        <v>6.6089375</v>
+        <v>6.182625</v>
       </c>
       <c r="D4">
-        <v>5.223000000000001</v>
+        <v>5.207</v>
       </c>
       <c r="E4">
-        <v>-5.036591484470801</v>
+        <v>-11.74112733861644</v>
       </c>
       <c r="F4">
-        <v>-3.142871079336404</v>
+        <v>-6.58618973661973</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -474,19 +474,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="C5">
-        <v>5.0901875</v>
+        <v>6.171250000000001</v>
       </c>
       <c r="D5">
-        <v>4.841125</v>
+        <v>5.19675</v>
       </c>
       <c r="E5">
-        <v>-9.782466636979654</v>
+        <v>-11.61593233511975</v>
       </c>
       <c r="F5">
-        <v>-8.046529139786596</v>
+        <v>-6.386566490523109</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -494,19 +494,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>500</v>
+        <v>63</v>
       </c>
       <c r="C6">
-        <v>3.5255</v>
+        <v>6.186375</v>
       </c>
       <c r="D6">
-        <v>3.227875</v>
+        <v>5.115875</v>
       </c>
       <c r="E6">
-        <v>-5.588456706393434</v>
+        <v>-10.23514895371549</v>
       </c>
       <c r="F6">
-        <v>-3.52886746589431</v>
+        <v>-5.348601812503589</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -514,19 +514,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="C7">
-        <v>1.899875</v>
+        <v>6.33175</v>
       </c>
       <c r="D7">
-        <v>1.940375</v>
+        <v>5.007125</v>
       </c>
       <c r="E7">
-        <v>-5.014140939930836</v>
+        <v>-7.531034108477554</v>
       </c>
       <c r="F7">
-        <v>-2.831463047911687</v>
+        <v>-3.144489196079132</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -534,19 +534,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>1.6990625</v>
+        <v>7.226999999999999</v>
       </c>
       <c r="D8">
-        <v>1.676125</v>
+        <v>4.963625</v>
       </c>
       <c r="E8">
-        <v>-2.976930641423285</v>
+        <v>-4.705028721745331</v>
       </c>
       <c r="F8">
-        <v>0.384341420876731</v>
+        <v>-2.085684587453835</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -554,19 +554,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4000</v>
+        <v>125</v>
       </c>
       <c r="C9">
-        <v>1.41125</v>
+        <v>6.1476875</v>
       </c>
       <c r="D9">
-        <v>1.35175</v>
+        <v>5.797625</v>
       </c>
       <c r="E9">
-        <v>-1.771619493916659</v>
+        <v>-4.865333964955916</v>
       </c>
       <c r="F9">
-        <v>0.7937148533131144</v>
+        <v>-4.1108886509673</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -574,19 +574,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8000</v>
+        <v>160</v>
       </c>
       <c r="C10">
-        <v>0.9246875</v>
+        <v>5.3535</v>
       </c>
       <c r="D10">
-        <v>0.86775</v>
+        <v>5.796250000000001</v>
       </c>
       <c r="E10">
-        <v>0.5787803980643653</v>
+        <v>-9.16910539428163</v>
       </c>
       <c r="F10">
-        <v>3.980763095050884</v>
+        <v>-8.269825462693001</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -594,19 +594,399 @@
         <v>9</v>
       </c>
       <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <v>5.2110625</v>
+      </c>
+      <c r="D11">
+        <v>4.411125</v>
+      </c>
+      <c r="E11">
+        <v>-10.83377822556002</v>
+      </c>
+      <c r="F11">
+        <v>-8.794410921353204</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>250</v>
+      </c>
+      <c r="C12">
+        <v>4.68275</v>
+      </c>
+      <c r="D12">
+        <v>4.619625</v>
+      </c>
+      <c r="E12">
+        <v>-9.684802856285533</v>
+      </c>
+      <c r="F12">
+        <v>-7.829374316965251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>315</v>
+      </c>
+      <c r="C13">
+        <v>4.139125</v>
+      </c>
+      <c r="D13">
+        <v>4.156375</v>
+      </c>
+      <c r="E13">
+        <v>-7.949585767200461</v>
+      </c>
+      <c r="F13">
+        <v>-5.846437974801667</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>400</v>
+      </c>
+      <c r="C14">
+        <v>3.5594375</v>
+      </c>
+      <c r="D14">
+        <v>3.49725</v>
+      </c>
+      <c r="E14">
+        <v>-5.776320699677847</v>
+      </c>
+      <c r="F14">
+        <v>-3.765072362961382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>500</v>
+      </c>
+      <c r="C15">
+        <v>2.742</v>
+      </c>
+      <c r="D15">
+        <v>2.63075</v>
+      </c>
+      <c r="E15">
+        <v>-4.795471308114248</v>
+      </c>
+      <c r="F15">
+        <v>-2.823975028912093</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>630</v>
+      </c>
+      <c r="C16">
+        <v>2.3344375</v>
+      </c>
+      <c r="D16">
+        <v>2.275125</v>
+      </c>
+      <c r="E16">
+        <v>-5.23143199888607</v>
+      </c>
+      <c r="F16">
+        <v>-3.236837346543735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>800</v>
+      </c>
+      <c r="C17">
+        <v>1.784375</v>
+      </c>
+      <c r="D17">
+        <v>1.987125</v>
+      </c>
+      <c r="E17">
+        <v>-5.26548297463486</v>
+      </c>
+      <c r="F17">
+        <v>-3.498955839573177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+      <c r="C18">
+        <v>1.6814375</v>
+      </c>
+      <c r="D18">
+        <v>1.742625</v>
+      </c>
+      <c r="E18">
+        <v>-4.398701982276041</v>
+      </c>
+      <c r="F18">
+        <v>-1.987177209756208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1250</v>
+      </c>
+      <c r="C19">
+        <v>1.6855</v>
+      </c>
+      <c r="D19">
+        <v>1.591125</v>
+      </c>
+      <c r="E19">
+        <v>-2.681333962917987</v>
+      </c>
+      <c r="F19">
+        <v>0.7019999759554153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1600</v>
+      </c>
+      <c r="C20">
+        <v>1.752125</v>
+      </c>
+      <c r="D20">
+        <v>1.711875</v>
+      </c>
+      <c r="E20">
+        <v>-2.548487179508756</v>
+      </c>
+      <c r="F20">
+        <v>0.6790756424280069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2000</v>
+      </c>
+      <c r="C21">
+        <v>1.6874375</v>
+      </c>
+      <c r="D21">
+        <v>1.679875</v>
+      </c>
+      <c r="E21">
+        <v>-3.326783855769363</v>
+      </c>
+      <c r="F21">
+        <v>0.1825609303715374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>2500</v>
+      </c>
+      <c r="C22">
+        <v>1.6026875</v>
+      </c>
+      <c r="D22">
+        <v>1.527125</v>
+      </c>
+      <c r="E22">
+        <v>-3.12860323819678</v>
+      </c>
+      <c r="F22">
+        <v>-0.2847529569917012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>3150</v>
+      </c>
+      <c r="C23">
+        <v>1.436125</v>
+      </c>
+      <c r="D23">
+        <v>1.4395</v>
+      </c>
+      <c r="E23">
+        <v>-1.949786796690232</v>
+      </c>
+      <c r="F23">
+        <v>0.7955706220053527</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>4000</v>
+      </c>
+      <c r="C24">
+        <v>1.295125</v>
+      </c>
+      <c r="D24">
+        <v>1.285625</v>
+      </c>
+      <c r="E24">
+        <v>-1.371217205448737</v>
+      </c>
+      <c r="F24">
+        <v>0.9425836964707113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>5000</v>
+      </c>
+      <c r="C25">
+        <v>1.1513125</v>
+      </c>
+      <c r="D25">
+        <v>1.13475</v>
+      </c>
+      <c r="E25">
+        <v>-0.7275050464466368</v>
+      </c>
+      <c r="F25">
+        <v>2.076191909473887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>6300</v>
+      </c>
+      <c r="C26">
+        <v>0.9577499999999999</v>
+      </c>
+      <c r="D26">
+        <v>0.9261249999999999</v>
+      </c>
+      <c r="E26">
+        <v>-0.06122174017565456</v>
+      </c>
+      <c r="F26">
+        <v>3.460310591337771</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>8000</v>
+      </c>
+      <c r="C27">
+        <v>0.7690625</v>
+      </c>
+      <c r="D27">
+        <v>0.748375</v>
+      </c>
+      <c r="E27">
+        <v>1.238906284671215</v>
+      </c>
+      <c r="F27">
+        <v>4.703224458979115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>10000</v>
+      </c>
+      <c r="C28">
+        <v>0.5985</v>
+      </c>
+      <c r="D28">
+        <v>0.57575</v>
+      </c>
+      <c r="E28">
+        <v>3.443508863427023</v>
+      </c>
+      <c r="F28">
+        <v>7.728838668285176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>12500</v>
+      </c>
+      <c r="C29">
+        <v>0.48675</v>
+      </c>
+      <c r="D29">
+        <v>0.49675</v>
+      </c>
+      <c r="E29">
+        <v>3.73227010571485</v>
+      </c>
+      <c r="F29">
+        <v>8.957443658772421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
         <v>16000</v>
       </c>
-      <c r="C11">
-        <v>0.5405</v>
-      </c>
-      <c r="D11">
-        <v>0.5233749999999999</v>
-      </c>
-      <c r="E11">
-        <v>3.711551204372943</v>
-      </c>
-      <c r="F11">
-        <v>8.568660099508332</v>
+      <c r="C30">
+        <v>0.4569375</v>
+      </c>
+      <c r="D30">
+        <v>0.468</v>
+      </c>
+      <c r="E30">
+        <v>4.455352246891162</v>
+      </c>
+      <c r="F30">
+        <v>9.753840164033775</v>
       </c>
     </row>
   </sheetData>
